--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель АЮР.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель АЮР.xlsx
@@ -506,6 +506,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -527,10 +539,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,12 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,23 +569,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,21 +877,21 @@
     <col min="23" max="23" width="3.81640625" style="6" customWidth="1"/>
     <col min="24" max="24" width="5.453125" style="6" customWidth="1"/>
     <col min="25" max="25" width="13.36328125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="0" style="54" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0" style="33" hidden="1" customWidth="1"/>
     <col min="27" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3"/>
-      <c r="Z1" s="53"/>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -921,7 +921,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Z2" s="53"/>
+      <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -951,7 +951,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Z3" s="53"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
@@ -979,7 +979,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Z4" s="53"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -1006,7 +1006,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Z5" s="53"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
@@ -1033,147 +1033,147 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Z6" s="53"/>
+      <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="44" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="44" t="s">
+      <c r="U9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="V9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="W9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="44" t="s">
+      <c r="X9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="45" t="s">
+      <c r="Y9" s="54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="45"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="54"/>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32">
+      <c r="A11" s="36">
         <v>1</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7">
@@ -1224,28 +1224,28 @@
       <c r="S11" s="7">
         <v>16</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="T11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="U11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="38" t="s">
+      <c r="V11" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="41"/>
-      <c r="X11" s="38">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="46">
+      <c r="W11" s="45"/>
+      <c r="X11" s="42">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="48">
         <v>6000</v>
       </c>
-      <c r="Z11" s="55"/>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="9">
         <v>2</v>
       </c>
@@ -1294,21 +1294,21 @@
       <c r="S12" s="9">
         <v>2</v>
       </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="55">
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="34">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="10">
         <v>17</v>
       </c>
@@ -1357,20 +1357,20 @@
       <c r="S13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="38">
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="42">
         <f>Z12+Z14</f>
         <v>44</v>
       </c>
-      <c r="Y13" s="46"/>
+      <c r="Y13" s="48"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1419,25 +1419,25 @@
       <c r="S14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="54">
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="33">
         <f>SUM(D14:S14)</f>
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32">
-        <v>2</v>
-      </c>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="7">
@@ -1488,29 +1488,29 @@
       <c r="S15" s="7">
         <v>16</v>
       </c>
-      <c r="T15" s="35" t="s">
+      <c r="T15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="35" t="s">
+      <c r="U15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V15" s="38" t="s">
+      <c r="V15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="41"/>
-      <c r="X15" s="38">
+      <c r="W15" s="45"/>
+      <c r="X15" s="42">
         <f>X17/8</f>
         <v>22</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y15" s="48">
         <v>6000</v>
       </c>
-      <c r="Z15" s="55"/>
+      <c r="Z15" s="34"/>
     </row>
     <row r="16" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="9">
         <v>8</v>
       </c>
@@ -1559,21 +1559,21 @@
       <c r="S16" s="9">
         <v>8</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="55">
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="34">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="10">
         <v>17</v>
       </c>
@@ -1622,20 +1622,20 @@
       <c r="S17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="38">
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="42">
         <f>Z16+Z18</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="46"/>
+      <c r="Y17" s="48"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
@@ -1684,13 +1684,13 @@
       <c r="S18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="54">
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="33">
         <f>SUM(D18:S18)</f>
         <v>80</v>
       </c>
@@ -1780,26 +1780,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -1813,6 +1793,26 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1837,21 +1837,21 @@
     <col min="23" max="23" width="3.6328125" style="6" customWidth="1"/>
     <col min="24" max="24" width="5.453125" style="6" customWidth="1"/>
     <col min="25" max="25" width="9" style="6" customWidth="1"/>
-    <col min="26" max="26" width="0" style="54" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0" style="33" hidden="1" customWidth="1"/>
     <col min="27" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3"/>
-      <c r="Z1" s="53"/>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1881,7 +1881,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Z2" s="53"/>
+      <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1911,7 +1911,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Z3" s="53"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
@@ -1939,7 +1939,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Z4" s="53"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -1966,7 +1966,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Z5" s="53"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
@@ -1993,147 +1993,147 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Z6" s="53"/>
+      <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="44" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="44" t="s">
+      <c r="U9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="V9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="W9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="44" t="s">
+      <c r="X9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="45" t="s">
+      <c r="Y9" s="54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="45"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="54"/>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32">
+      <c r="A11" s="36">
         <v>1</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7">
@@ -2184,29 +2184,29 @@
       <c r="S11" s="7">
         <v>16</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="T11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="U11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="38" t="s">
+      <c r="V11" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="41"/>
-      <c r="X11" s="38">
+      <c r="W11" s="45"/>
+      <c r="X11" s="42">
         <f>X13/2</f>
         <v>21</v>
       </c>
-      <c r="Y11" s="46">
+      <c r="Y11" s="48">
         <v>6000</v>
       </c>
-      <c r="Z11" s="55"/>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="9">
         <v>2</v>
       </c>
@@ -2255,21 +2255,21 @@
       <c r="S12" s="9">
         <v>2</v>
       </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="55">
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="34">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="10">
         <v>17</v>
       </c>
@@ -2318,20 +2318,20 @@
       <c r="S13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="38">
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="42">
         <f>Z12+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="46"/>
+      <c r="Y13" s="48"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="9">
         <v>2</v>
       </c>
@@ -2380,25 +2380,25 @@
       <c r="S14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="54">
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="33">
         <f>SUM(D14:S14)</f>
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32">
-        <v>2</v>
-      </c>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="7">
@@ -2449,29 +2449,29 @@
       <c r="S15" s="7">
         <v>16</v>
       </c>
-      <c r="T15" s="35" t="s">
+      <c r="T15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="35" t="s">
+      <c r="U15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V15" s="38" t="s">
+      <c r="V15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="41"/>
-      <c r="X15" s="38">
+      <c r="W15" s="45"/>
+      <c r="X15" s="42">
         <f>X17/8</f>
         <v>21</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y15" s="48">
         <v>6000</v>
       </c>
-      <c r="Z15" s="55"/>
+      <c r="Z15" s="34"/>
     </row>
     <row r="16" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="9">
         <v>8</v>
       </c>
@@ -2520,21 +2520,21 @@
       <c r="S16" s="9">
         <v>8</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="55">
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="34">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="10">
         <v>17</v>
       </c>
@@ -2583,20 +2583,20 @@
       <c r="S17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="38">
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="42">
         <f>Z16+Z18</f>
         <v>168</v>
       </c>
-      <c r="Y17" s="46"/>
+      <c r="Y17" s="48"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="9">
         <v>8</v>
       </c>
@@ -2645,13 +2645,13 @@
       <c r="S18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="54">
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="33">
         <f>SUM(D18:S18)</f>
         <v>72</v>
       </c>
@@ -2741,26 +2741,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -2774,6 +2754,26 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2798,21 +2798,21 @@
     <col min="23" max="23" width="4.6328125" style="6" customWidth="1"/>
     <col min="24" max="24" width="5.453125" style="6" customWidth="1"/>
     <col min="25" max="25" width="12" style="6" customWidth="1"/>
-    <col min="26" max="26" width="0" style="54" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0" style="33" hidden="1" customWidth="1"/>
     <col min="27" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3"/>
-      <c r="Z1" s="53"/>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2842,7 +2842,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Z2" s="53"/>
+      <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -2872,7 +2872,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Z3" s="53"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
@@ -2900,7 +2900,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Z4" s="53"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -2927,147 +2927,147 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Z5" s="53"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="44" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="44" t="s">
+      <c r="W8" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="44" t="s">
+      <c r="X8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="45" t="s">
+      <c r="Y8" s="54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="45"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54"/>
     </row>
     <row r="10" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32">
+      <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="7">
@@ -3118,29 +3118,29 @@
       <c r="S10" s="7">
         <v>16</v>
       </c>
-      <c r="T10" s="35" t="s">
+      <c r="T10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="U10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="38" t="s">
+      <c r="V10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W10" s="41"/>
-      <c r="X10" s="38">
+      <c r="W10" s="45"/>
+      <c r="X10" s="42">
         <f>X12/2</f>
         <v>18</v>
       </c>
-      <c r="Y10" s="46">
+      <c r="Y10" s="48">
         <v>6000</v>
       </c>
-      <c r="Z10" s="55"/>
+      <c r="Z10" s="34"/>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
@@ -3189,21 +3189,21 @@
       <c r="S11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="55">
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="34">
         <f>SUM(D11:S11)</f>
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="10">
         <v>17</v>
       </c>
@@ -3252,20 +3252,20 @@
       <c r="S12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="38">
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="42">
         <f>Z11+Z13</f>
         <v>36</v>
       </c>
-      <c r="Y12" s="46"/>
+      <c r="Y12" s="48"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="9">
         <v>2</v>
       </c>
@@ -3314,25 +3314,25 @@
       <c r="S13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="54">
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="33">
         <f>SUM(D13:S13)</f>
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32">
-        <v>2</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="7">
@@ -3383,28 +3383,28 @@
       <c r="S14" s="7">
         <v>16</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="39">
         <v>25</v>
       </c>
-      <c r="U14" s="35" t="s">
+      <c r="U14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="38" t="s">
+      <c r="V14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W14" s="41"/>
-      <c r="X14" s="38">
+      <c r="W14" s="45"/>
+      <c r="X14" s="42">
         <v>1</v>
       </c>
-      <c r="Y14" s="46">
+      <c r="Y14" s="48">
         <v>6000</v>
       </c>
-      <c r="Z14" s="55"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
@@ -3453,21 +3453,21 @@
       <c r="S15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="55">
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="34">
         <f>SUM(D15:S15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="10">
         <v>17</v>
       </c>
@@ -3516,19 +3516,19 @@
       <c r="S16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="38">
-        <v>8</v>
-      </c>
-      <c r="Y16" s="46"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="42">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="48"/>
     </row>
     <row r="17" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="9" t="s">
         <v>37</v>
       </c>
@@ -3577,25 +3577,25 @@
       <c r="S17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="54">
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="33">
         <f>SUM(D17:S17)</f>
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32">
+      <c r="A18" s="36">
         <v>3</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="7">
@@ -3646,29 +3646,29 @@
       <c r="S18" s="7">
         <v>16</v>
       </c>
-      <c r="T18" s="35" t="s">
+      <c r="T18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U18" s="35" t="s">
+      <c r="U18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="38" t="s">
+      <c r="V18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="41"/>
-      <c r="X18" s="38">
+      <c r="W18" s="45"/>
+      <c r="X18" s="42">
         <f>X20/8</f>
         <v>18</v>
       </c>
-      <c r="Y18" s="46">
+      <c r="Y18" s="48">
         <v>6000</v>
       </c>
-      <c r="Z18" s="55"/>
+      <c r="Z18" s="34"/>
     </row>
     <row r="19" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
@@ -3717,21 +3717,21 @@
       <c r="S19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="55">
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="34">
         <f>SUM(D19:S19)</f>
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="10">
         <v>17</v>
       </c>
@@ -3780,20 +3780,20 @@
       <c r="S20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="38">
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="42">
         <f>Z19+Z21</f>
         <v>144</v>
       </c>
-      <c r="Y20" s="46"/>
+      <c r="Y20" s="48"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="9">
         <v>8</v>
       </c>
@@ -3842,13 +3842,13 @@
       <c r="S21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="54">
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="33">
         <f>SUM(D21:S21)</f>
         <v>88</v>
       </c>
@@ -3940,11 +3940,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="T18:T21"/>
-    <mergeCell ref="U18:U21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="U14:U17"/>
     <mergeCell ref="V18:V21"/>
     <mergeCell ref="W18:W21"/>
     <mergeCell ref="X10:X11"/>
@@ -3960,29 +3978,11 @@
     <mergeCell ref="X16:X17"/>
     <mergeCell ref="V10:V13"/>
     <mergeCell ref="W10:W13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="T18:T21"/>
+    <mergeCell ref="U18:U21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4007,21 +4007,21 @@
     <col min="23" max="23" width="4.26953125" style="6" customWidth="1"/>
     <col min="24" max="24" width="5.453125" style="6" customWidth="1"/>
     <col min="25" max="25" width="11" style="6" customWidth="1"/>
-    <col min="26" max="26" width="0" style="54" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0" style="33" hidden="1" customWidth="1"/>
     <col min="27" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3"/>
-      <c r="Z1" s="53"/>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -4051,7 +4051,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Z2" s="53"/>
+      <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -4081,7 +4081,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Z3" s="53"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
@@ -4109,7 +4109,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Z4" s="53"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -4136,149 +4136,149 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Z5" s="53"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
       <c r="X6" s="31"/>
-      <c r="Z6" s="53"/>
+      <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="32"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="44" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="44" t="s">
+      <c r="W8" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="44" t="s">
+      <c r="X8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="45" t="s">
+      <c r="Y8" s="54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="45"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54"/>
     </row>
     <row r="10" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32">
+      <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="7">
@@ -4329,28 +4329,28 @@
       <c r="S10" s="7">
         <v>16</v>
       </c>
-      <c r="T10" s="35" t="s">
+      <c r="T10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="U10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="38" t="s">
+      <c r="V10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W10" s="41"/>
-      <c r="X10" s="38">
-        <v>22</v>
-      </c>
-      <c r="Y10" s="46">
+      <c r="W10" s="45"/>
+      <c r="X10" s="42">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="48">
         <v>6000</v>
       </c>
-      <c r="Z10" s="55"/>
+      <c r="Z10" s="34"/>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="9">
         <v>2</v>
       </c>
@@ -4399,21 +4399,21 @@
       <c r="S11" s="9">
         <v>2</v>
       </c>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="55">
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="34">
         <f>SUM(D11:S11)</f>
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="10">
         <v>17</v>
       </c>
@@ -4462,20 +4462,20 @@
       <c r="S12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="38">
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="42">
         <f>Z11+Z13</f>
         <v>44</v>
       </c>
-      <c r="Y12" s="46"/>
+      <c r="Y12" s="48"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="9" t="s">
         <v>21</v>
       </c>
@@ -4524,25 +4524,25 @@
       <c r="S13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="54">
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="33">
         <f>SUM(D13:S13)</f>
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32">
-        <v>2</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="7">
@@ -4593,28 +4593,28 @@
       <c r="S14" s="7">
         <v>16</v>
       </c>
-      <c r="T14" s="35" t="s">
+      <c r="T14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="35" t="s">
+      <c r="U14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="38" t="s">
+      <c r="V14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W14" s="41"/>
-      <c r="X14" s="38">
-        <v>22</v>
-      </c>
-      <c r="Y14" s="46">
+      <c r="W14" s="45"/>
+      <c r="X14" s="42">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="48">
         <v>6000</v>
       </c>
-      <c r="Z14" s="55"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="9">
         <v>8</v>
       </c>
@@ -4663,21 +4663,21 @@
       <c r="S15" s="9">
         <v>8</v>
       </c>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="55">
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="34">
         <f>SUM(D15:S15)</f>
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="10">
         <v>17</v>
       </c>
@@ -4726,20 +4726,20 @@
       <c r="S16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="38">
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="42">
         <f>Z15+Z17</f>
         <v>175</v>
       </c>
-      <c r="Y16" s="46"/>
+      <c r="Y16" s="48"/>
     </row>
     <row r="17" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
@@ -4788,25 +4788,25 @@
       <c r="S17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="54">
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="33">
         <f>SUM(D17:S17)</f>
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32">
+      <c r="A18" s="36">
         <v>3</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="7">
@@ -4857,28 +4857,28 @@
       <c r="S18" s="7">
         <v>16</v>
       </c>
-      <c r="T18" s="35" t="s">
+      <c r="T18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U18" s="35" t="s">
+      <c r="U18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="38" t="s">
+      <c r="V18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="41"/>
-      <c r="X18" s="38">
+      <c r="W18" s="45"/>
+      <c r="X18" s="42">
         <v>9</v>
       </c>
-      <c r="Y18" s="46">
+      <c r="Y18" s="48">
         <v>6000</v>
       </c>
-      <c r="Z18" s="55"/>
+      <c r="Z18" s="34"/>
     </row>
     <row r="19" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="9" t="s">
         <v>20</v>
       </c>
@@ -4927,21 +4927,21 @@
       <c r="S19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="55">
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="34">
         <f>SUM(D19:S19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="10">
         <v>17</v>
       </c>
@@ -4990,20 +4990,20 @@
       <c r="S20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="38">
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="42">
         <f>Z19+Z21</f>
         <v>72</v>
       </c>
-      <c r="Y20" s="46"/>
+      <c r="Y20" s="48"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="9" t="s">
         <v>21</v>
       </c>
@@ -5052,13 +5052,13 @@
       <c r="S21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="54">
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="33">
         <f>SUM(D21:S21)</f>
         <v>72</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
-      <c r="P23" s="56"/>
+      <c r="P23" s="35"/>
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
       <c r="S23" s="24"/>
@@ -5178,11 +5178,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="T18:T21"/>
-    <mergeCell ref="U18:U21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="U14:U17"/>
     <mergeCell ref="V18:V21"/>
     <mergeCell ref="W18:W21"/>
     <mergeCell ref="X10:X11"/>
@@ -5198,29 +5216,11 @@
     <mergeCell ref="X16:X17"/>
     <mergeCell ref="V10:V13"/>
     <mergeCell ref="W10:W13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="T18:T21"/>
+    <mergeCell ref="U18:U21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5247,21 +5247,21 @@
     <col min="23" max="23" width="3.7265625" style="6" customWidth="1"/>
     <col min="24" max="24" width="5.453125" style="6" customWidth="1"/>
     <col min="25" max="25" width="11.453125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="0" style="54" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0" style="33" hidden="1" customWidth="1"/>
     <col min="27" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3"/>
-      <c r="Z1" s="53"/>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -5291,7 +5291,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Z2" s="53"/>
+      <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -5321,7 +5321,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Z3" s="53"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
@@ -5349,7 +5349,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Z4" s="53"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -5376,7 +5376,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Z5" s="53"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
@@ -5403,147 +5403,147 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Z6" s="53"/>
+      <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="44" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="44" t="s">
+      <c r="U9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="V9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="W9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="44" t="s">
+      <c r="X9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="45" t="s">
+      <c r="Y9" s="54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="45"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="54"/>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32">
+      <c r="A11" s="36">
         <v>1</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7">
@@ -5594,28 +5594,28 @@
       <c r="S11" s="7">
         <v>16</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="T11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="U11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="38" t="s">
+      <c r="V11" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="41"/>
-      <c r="X11" s="38">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="46">
+      <c r="W11" s="45"/>
+      <c r="X11" s="42">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="48">
         <v>6000</v>
       </c>
-      <c r="Z11" s="55"/>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="9">
         <v>2</v>
       </c>
@@ -5664,21 +5664,21 @@
       <c r="S12" s="9">
         <v>2</v>
       </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="55">
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="34">
         <f>SUM(D12:S12)</f>
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="10">
         <v>17</v>
       </c>
@@ -5727,20 +5727,20 @@
       <c r="S13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="38">
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="42">
         <f>Z14+Z12</f>
         <v>44</v>
       </c>
-      <c r="Y13" s="46"/>
+      <c r="Y13" s="48"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="9">
         <v>2</v>
       </c>
@@ -5789,25 +5789,25 @@
       <c r="S14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="54">
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="33">
         <f>SUM(D14:S14)</f>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32">
-        <v>2</v>
-      </c>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7">
@@ -5858,29 +5858,29 @@
       <c r="S15" s="7">
         <v>16</v>
       </c>
-      <c r="T15" s="35" t="s">
+      <c r="T15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="35" t="s">
+      <c r="U15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V15" s="38" t="s">
+      <c r="V15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="41"/>
-      <c r="X15" s="38">
+      <c r="W15" s="45"/>
+      <c r="X15" s="42">
         <f>(X17)/4</f>
         <v>22</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y15" s="48">
         <v>6000</v>
       </c>
-      <c r="Z15" s="55"/>
+      <c r="Z15" s="34"/>
     </row>
     <row r="16" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="9">
         <v>4</v>
       </c>
@@ -5929,21 +5929,21 @@
       <c r="S16" s="9">
         <v>4</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="55">
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="34">
         <f>SUM(D16:S16)</f>
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="10">
         <v>17</v>
       </c>
@@ -5992,20 +5992,20 @@
       <c r="S17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="38">
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="42">
         <f>Z16+Z18</f>
         <v>88</v>
       </c>
-      <c r="Y17" s="46"/>
+      <c r="Y17" s="48"/>
     </row>
     <row r="18" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="9">
         <v>4</v>
       </c>
@@ -6054,13 +6054,13 @@
       <c r="S18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="54">
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="33">
         <f>SUM(D18:S18)</f>
         <v>44</v>
       </c>
@@ -6177,11 +6177,21 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="V15:V18"/>
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="W9:W10"/>
@@ -6195,21 +6205,11 @@
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="Y11:Y14"/>
     <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -6232,21 +6232,21 @@
     <col min="4" max="19" width="4.36328125" style="6" customWidth="1"/>
     <col min="20" max="24" width="5.453125" style="6" customWidth="1"/>
     <col min="25" max="25" width="11" style="6" customWidth="1"/>
-    <col min="26" max="26" width="0" style="54" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0" style="33" hidden="1" customWidth="1"/>
     <col min="27" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3"/>
-      <c r="Z1" s="53"/>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -6276,7 +6276,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Z2" s="53"/>
+      <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -6306,7 +6306,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Z3" s="53"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
@@ -6334,7 +6334,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Z4" s="53"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -6361,7 +6361,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Z5" s="53"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
@@ -6388,147 +6388,147 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Z6" s="53"/>
+      <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="44" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="44" t="s">
+      <c r="U9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="V9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="W9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="44" t="s">
+      <c r="X9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="45" t="s">
+      <c r="Y9" s="54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="45"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="54"/>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32">
+      <c r="A11" s="36">
         <v>1</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7">
@@ -6579,28 +6579,28 @@
       <c r="S11" s="7">
         <v>16</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="T11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="U11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="38" t="s">
+      <c r="V11" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="41"/>
-      <c r="X11" s="38">
+      <c r="W11" s="45"/>
+      <c r="X11" s="42">
         <v>20</v>
       </c>
-      <c r="Y11" s="46">
+      <c r="Y11" s="48">
         <v>6000</v>
       </c>
-      <c r="Z11" s="55"/>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="9">
         <v>2</v>
       </c>
@@ -6649,21 +6649,21 @@
       <c r="S12" s="9">
         <v>2</v>
       </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="55">
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="34">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="10">
         <v>17</v>
       </c>
@@ -6712,19 +6712,19 @@
       <c r="S13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="38">
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="42">
         <v>40</v>
       </c>
-      <c r="Y13" s="46"/>
+      <c r="Y13" s="48"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="9">
         <v>2</v>
       </c>
@@ -6773,25 +6773,25 @@
       <c r="S14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="54">
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="33">
         <f>SUM(D14:S14)</f>
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32">
-        <v>2</v>
-      </c>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7">
@@ -6842,29 +6842,29 @@
       <c r="S15" s="7">
         <v>16</v>
       </c>
-      <c r="T15" s="35" t="s">
+      <c r="T15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="35" t="s">
+      <c r="U15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V15" s="38" t="s">
+      <c r="V15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="41"/>
-      <c r="X15" s="38">
+      <c r="W15" s="45"/>
+      <c r="X15" s="42">
         <f>X17/4</f>
         <v>13</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y15" s="48">
         <v>6000</v>
       </c>
-      <c r="Z15" s="55"/>
+      <c r="Z15" s="34"/>
     </row>
     <row r="16" spans="1:26" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="9" t="s">
         <v>22</v>
       </c>
@@ -6913,21 +6913,21 @@
       <c r="S16" s="9">
         <v>4</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="55">
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="34">
         <f>SUM(D16:S16)</f>
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="10">
         <v>17</v>
       </c>
@@ -6976,20 +6976,20 @@
       <c r="S17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="38">
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="42">
         <f>Z16+Z18</f>
         <v>52</v>
       </c>
-      <c r="Y17" s="46"/>
+      <c r="Y17" s="48"/>
     </row>
     <row r="18" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="9">
         <v>4</v>
       </c>
@@ -7038,13 +7038,13 @@
       <c r="S18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="54">
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="33">
         <f>SUM(D18:S18)</f>
         <v>32</v>
       </c>
@@ -7164,11 +7164,21 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="V15:V18"/>
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="W9:W10"/>
@@ -7182,21 +7192,11 @@
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="Y11:Y14"/>
     <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -7221,21 +7221,21 @@
     <col min="23" max="23" width="3.90625" style="6" customWidth="1"/>
     <col min="24" max="24" width="5.453125" style="6" customWidth="1"/>
     <col min="25" max="25" width="13.08984375" style="6" customWidth="1"/>
-    <col min="26" max="26" width="0" style="54" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="0" style="33" hidden="1" customWidth="1"/>
     <col min="27" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3"/>
-      <c r="Z1" s="53"/>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -7265,7 +7265,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Z2" s="53"/>
+      <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -7295,7 +7295,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Z3" s="53"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
@@ -7323,7 +7323,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Z4" s="53"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -7350,7 +7350,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Z5" s="53"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
@@ -7377,147 +7377,147 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Z6" s="53"/>
+      <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="44" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="44" t="s">
+      <c r="U9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="44" t="s">
+      <c r="V9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="W9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="44" t="s">
+      <c r="X9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="45" t="s">
+      <c r="Y9" s="54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="45"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="54"/>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32">
+      <c r="A11" s="36">
         <v>1</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7">
@@ -7568,28 +7568,28 @@
       <c r="S11" s="7">
         <v>16</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="T11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="U11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="38" t="s">
+      <c r="V11" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="41"/>
-      <c r="X11" s="38">
+      <c r="W11" s="45"/>
+      <c r="X11" s="42">
         <v>19</v>
       </c>
-      <c r="Y11" s="46">
+      <c r="Y11" s="48">
         <v>6000</v>
       </c>
-      <c r="Z11" s="55"/>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="9">
         <v>2</v>
       </c>
@@ -7638,21 +7638,21 @@
       <c r="S12" s="9">
         <v>2</v>
       </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="55">
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="34">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="10">
         <v>17</v>
       </c>
@@ -7701,20 +7701,20 @@
       <c r="S13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="38">
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="42">
         <f>Z12+Z14</f>
         <v>44</v>
       </c>
-      <c r="Y13" s="46"/>
+      <c r="Y13" s="48"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
@@ -7759,13 +7759,13 @@
       </c>
       <c r="R14" s="9"/>
       <c r="S14" s="10"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="54">
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="33">
         <f>SUM(D14:S14)</f>
         <v>20</v>
       </c>
@@ -7886,13 +7886,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
@@ -7909,6 +7902,13 @@
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="U11:U14"/>
     <mergeCell ref="X11:X12"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
